--- a/src/BerglasOptimized.xlsx
+++ b/src/BerglasOptimized.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+  <si>
+    <t>广告牌</t>
+  </si>
   <si>
     <t>大王</t>
   </si>
@@ -20,163 +23,160 @@
     <t>小王</t>
   </si>
   <si>
+    <t>红桃12</t>
+  </si>
+  <si>
+    <t>黑桃12</t>
+  </si>
+  <si>
+    <t>方片13</t>
+  </si>
+  <si>
+    <t>方片11</t>
+  </si>
+  <si>
+    <t>红桃11</t>
+  </si>
+  <si>
+    <t>梅花11</t>
+  </si>
+  <si>
+    <t>方片1</t>
+  </si>
+  <si>
+    <t>红桃7</t>
+  </si>
+  <si>
+    <t>梅花6</t>
+  </si>
+  <si>
+    <t>黑桃3</t>
+  </si>
+  <si>
+    <t>红桃9</t>
+  </si>
+  <si>
+    <t>梅花5</t>
+  </si>
+  <si>
+    <t>方片7</t>
+  </si>
+  <si>
+    <t>黑桃6</t>
+  </si>
+  <si>
+    <t>方片3</t>
+  </si>
+  <si>
+    <t>梅花9</t>
+  </si>
+  <si>
+    <t>红桃5</t>
+  </si>
+  <si>
+    <t>梅花7</t>
+  </si>
+  <si>
+    <t>红桃6</t>
+  </si>
+  <si>
+    <t>红桃3</t>
+  </si>
+  <si>
+    <t>方片9</t>
+  </si>
+  <si>
+    <t>黑桃5</t>
+  </si>
+  <si>
+    <t>黑桃7</t>
+  </si>
+  <si>
+    <t>方片6</t>
+  </si>
+  <si>
+    <t>梅花3</t>
+  </si>
+  <si>
+    <t>黑桃9</t>
+  </si>
+  <si>
+    <t>黑桃8</t>
+  </si>
+  <si>
+    <t>黑桃10</t>
+  </si>
+  <si>
+    <t>方片5</t>
+  </si>
+  <si>
+    <t>黑桃4</t>
+  </si>
+  <si>
+    <t>红桃1</t>
+  </si>
+  <si>
+    <t>梅花8</t>
+  </si>
+  <si>
+    <t>红桃10</t>
+  </si>
+  <si>
+    <t>黑桃2</t>
+  </si>
+  <si>
+    <t>梅花4</t>
+  </si>
+  <si>
+    <t>黑桃1</t>
+  </si>
+  <si>
+    <t>红桃8</t>
+  </si>
+  <si>
+    <t>方片10</t>
+  </si>
+  <si>
+    <t>梅花2</t>
+  </si>
+  <si>
+    <t>方片4</t>
+  </si>
+  <si>
+    <t>梅花1</t>
+  </si>
+  <si>
+    <t>方片8</t>
+  </si>
+  <si>
+    <t>梅花10</t>
+  </si>
+  <si>
+    <t>红桃2</t>
+  </si>
+  <si>
+    <t>红桃4</t>
+  </si>
+  <si>
+    <t>方片2</t>
+  </si>
+  <si>
+    <t>黑桃11</t>
+  </si>
+  <si>
+    <t>方片12</t>
+  </si>
+  <si>
     <t>梅花12</t>
   </si>
   <si>
-    <t>方片1</t>
-  </si>
-  <si>
-    <t>黑桃1</t>
-  </si>
-  <si>
-    <t>梅花1</t>
-  </si>
-  <si>
-    <t>方片11</t>
-  </si>
-  <si>
-    <t>方片2</t>
-  </si>
-  <si>
-    <t>红桃11</t>
-  </si>
-  <si>
-    <t>梅花10</t>
-  </si>
-  <si>
-    <t>梅花2</t>
-  </si>
-  <si>
-    <t>黑桃4</t>
-  </si>
-  <si>
-    <t>梅花9</t>
-  </si>
-  <si>
-    <t>黑桃7</t>
-  </si>
-  <si>
-    <t>梅花6</t>
-  </si>
-  <si>
-    <t>红桃5</t>
-  </si>
-  <si>
-    <t>黑桃9</t>
-  </si>
-  <si>
-    <t>红桃7</t>
-  </si>
-  <si>
-    <t>黑桃6</t>
-  </si>
-  <si>
-    <t>方片5</t>
-  </si>
-  <si>
-    <t>红桃9</t>
-  </si>
-  <si>
-    <t>梅花7</t>
-  </si>
-  <si>
-    <t>方片6</t>
-  </si>
-  <si>
-    <t>红桃4</t>
-  </si>
-  <si>
-    <t>方片9</t>
-  </si>
-  <si>
-    <t>方片7</t>
-  </si>
-  <si>
-    <t>梅花5</t>
-  </si>
-  <si>
-    <t>黑桃11</t>
-  </si>
-  <si>
-    <t>红桃10</t>
-  </si>
-  <si>
-    <t>红桃6</t>
-  </si>
-  <si>
-    <t>方片8</t>
-  </si>
-  <si>
-    <t>黑桃3</t>
-  </si>
-  <si>
-    <t>黑桃5</t>
-  </si>
-  <si>
-    <t>梅花8</t>
-  </si>
-  <si>
-    <t>红桃3</t>
-  </si>
-  <si>
-    <t>梅花4</t>
-  </si>
-  <si>
-    <t>黑桃10</t>
-  </si>
-  <si>
-    <t>黑桃8</t>
-  </si>
-  <si>
-    <t>方片3</t>
-  </si>
-  <si>
-    <t>方片4</t>
-  </si>
-  <si>
-    <t>方片10</t>
-  </si>
-  <si>
-    <t>红桃8</t>
-  </si>
-  <si>
-    <t>梅花3</t>
-  </si>
-  <si>
-    <t>梅花11</t>
-  </si>
-  <si>
-    <t>红桃2</t>
-  </si>
-  <si>
-    <t>黑桃2</t>
-  </si>
-  <si>
-    <t>方片12</t>
-  </si>
-  <si>
-    <t>黑桃12</t>
-  </si>
-  <si>
-    <t>红桃12</t>
-  </si>
-  <si>
-    <t>红桃1</t>
+    <t>红桃13</t>
   </si>
   <si>
     <t>黑桃13</t>
   </si>
   <si>
-    <t>方片13</t>
-  </si>
-  <si>
-    <t>红桃13</t>
-  </si>
-  <si>
     <t>梅花13</t>
-  </si>
-  <si>
-    <t>广告牌</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:A56"/>
+  <dimension ref="A2:A59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -502,6 +502,21 @@
         <v>54</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
